--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3862DD90-8A1B-48F3-961C-CD7559070BC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C71596-3413-47D6-A51F-3E9AE613F277}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,15 +152,21 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +455,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,11 +466,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -478,11 +484,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C71596-3413-47D6-A51F-3E9AE613F277}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D76623-C3E5-4699-A1D5-BB076A35A745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="فروردین" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -152,12 +152,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -166,6 +160,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,29 +466,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D76623-C3E5-4699-A1D5-BB076A35A745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B609B-CB61-4326-A4A7-2BE38F274E0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF111111"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -167,6 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +462,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,13 +509,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -524,9 +531,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -534,9 +541,9 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -544,9 +551,9 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -554,9 +561,9 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -564,9 +571,9 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -574,9 +581,9 @@
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -584,9 +591,9 @@
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B609B-CB61-4326-A4A7-2BE38F274E0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893E876B-964C-4397-8619-6B5422D46135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Report Dates</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>Report 8_15</t>
+  </si>
+  <si>
+    <t>Report LPPostFeeder_Load</t>
+  </si>
+  <si>
+    <t>2021 April 28</t>
+  </si>
+  <si>
+    <t>1400/02/08</t>
+  </si>
+  <si>
+    <t>Report 8_24</t>
+  </si>
+  <si>
+    <t>2021 April 20</t>
+  </si>
+  <si>
+    <t>1400/01/31</t>
   </si>
 </sst>
 </file>
@@ -167,13 +185,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +480,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,11 +491,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -491,11 +509,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -509,13 +527,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -531,19 +549,31 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -551,9 +581,9 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -561,9 +591,9 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -571,9 +601,9 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -581,9 +611,9 @@
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -591,9 +621,9 @@
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893E876B-964C-4397-8619-6B5422D46135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3A943A-8456-416A-BD62-36FABA242CB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Report Dates</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>1400/01/31</t>
+  </si>
+  <si>
+    <t>Report_14_1</t>
+  </si>
+  <si>
+    <t>1400 / 02</t>
+  </si>
+  <si>
+    <t>1400/02/11</t>
+  </si>
+  <si>
+    <t>2021 May 02</t>
   </si>
 </sst>
 </file>
@@ -146,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -169,11 +181,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -190,6 +239,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,80 +618,84 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3A943A-8456-416A-BD62-36FABA242CB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C556B4-3EE7-4E8B-BEA2-FE1060E13370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Report Dates</t>
   </si>
@@ -33,9 +33,6 @@
     <t>1400 / 01</t>
   </si>
   <si>
-    <t>Report Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date Gregorian </t>
   </si>
   <si>
@@ -87,10 +84,22 @@
     <t>1400 / 02</t>
   </si>
   <si>
-    <t>1400/02/11</t>
-  </si>
-  <si>
     <t>2021 May 02</t>
+  </si>
+  <si>
+    <t>2021 May 09</t>
+  </si>
+  <si>
+    <t>1400/02/19</t>
+  </si>
+  <si>
+    <t>1400/02/12</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>SP Folder Name (Report Name)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +547,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,13 +566,13 @@
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,81 +584,87 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C556B4-3EE7-4E8B-BEA2-FE1060E13370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E268F8D3-2549-49AB-81F5-4E572F9F5A70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Report Dates</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>SP Folder Name (Report Name)</t>
+  </si>
+  <si>
+    <t>Report_GMaz_GetUnstableFeeders</t>
+  </si>
+  <si>
+    <t>2021 May 11</t>
+  </si>
+  <si>
+    <t>1400/02/21</t>
   </si>
 </sst>
 </file>
@@ -547,7 +556,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,9 +676,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E268F8D3-2549-49AB-81F5-4E572F9F5A70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5946FE86-E440-4015-949A-1C880688F6A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Report Dates</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>1400/02/21</t>
+  </si>
+  <si>
+    <t>Report Sabz_Erja  (Old form of 14_4)</t>
+  </si>
+  <si>
+    <t>2021 May 19</t>
+  </si>
+  <si>
+    <t>1400/02/29</t>
   </si>
 </sst>
 </file>
@@ -556,7 +565,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,9 +696,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5946FE86-E440-4015-949A-1C880688F6A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D2FDD5-ADBD-4E1F-867E-704A5D9A98C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D2FDD5-ADBD-4E1F-867E-704A5D9A98C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393C82FD-1D60-4E21-92BF-D68B2BD27E84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Report Dates</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>1400/02/29</t>
+  </si>
+  <si>
+    <t>Report_AzarGH_FeederPeak</t>
+  </si>
+  <si>
+    <t>2021 May 24</t>
+  </si>
+  <si>
+    <t>Report_AzarGH_PostFeederLoad</t>
+  </si>
+  <si>
+    <t>1400/03/03</t>
+  </si>
+  <si>
+    <t>1400 / 03</t>
   </si>
 </sst>
 </file>
@@ -562,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,40 +722,60 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393C82FD-1D60-4E21-92BF-D68B2BD27E84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF8A960-1FDE-4DA0-A466-AE31DD9A7208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Report Dates</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>1400 / 03</t>
+  </si>
+  <si>
+    <t>Report_KHSH_GetLPPostLoadBalance</t>
+  </si>
+  <si>
+    <t>2021 May 30</t>
+  </si>
+  <si>
+    <t>1400/03/09</t>
   </si>
 </sst>
 </file>
@@ -580,7 +589,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,9 +760,15 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF8A960-1FDE-4DA0-A466-AE31DD9A7208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F5A948-23B2-4997-9036-5442558582BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F5A948-23B2-4997-9036-5442558582BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8FED5-447A-4008-84B9-523668E7D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Report Dates</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>1400/03/09</t>
+  </si>
+  <si>
+    <t>Report 10_4</t>
+  </si>
+  <si>
+    <t>2021 June 22</t>
+  </si>
+  <si>
+    <t>1400/04/01</t>
+  </si>
+  <si>
+    <t>1400 / 04</t>
   </si>
 </sst>
 </file>
@@ -586,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,26 +783,40 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8FED5-447A-4008-84B9-523668E7D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811F466F-FF34-4E63-AF65-7B4C25DB9D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Report Dates</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>1400 / 04</t>
+  </si>
+  <si>
+    <t>Report 2_@_@</t>
+  </si>
+  <si>
+    <t>1400/04/09</t>
+  </si>
+  <si>
+    <t>2021 June 30</t>
+  </si>
+  <si>
+    <t>TraceMap</t>
+  </si>
+  <si>
+    <t>2021 Jully 14</t>
+  </si>
+  <si>
+    <t>1400/04/23</t>
   </si>
 </sst>
 </file>
@@ -600,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,14 +819,26 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811F466F-FF34-4E63-AF65-7B4C25DB9D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C4FC1B-BEF0-4FB3-82A9-87CA137B15E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Report Dates</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>1400/04/23</t>
+  </si>
+  <si>
+    <t>1400/04/26</t>
+  </si>
+  <si>
+    <t>2021 Jully 17</t>
+  </si>
+  <si>
+    <t>Report 6-2 (Bazdid) *</t>
   </si>
 </sst>
 </file>
@@ -616,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,6 +849,17 @@
         <v>48</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C4FC1B-BEF0-4FB3-82A9-87CA137B15E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8DCC8-8316-48B4-90DF-4BA8C1BB9B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Report Dates</t>
   </si>
@@ -181,6 +181,27 @@
   </si>
   <si>
     <t>Report 6-2 (Bazdid) *</t>
+  </si>
+  <si>
+    <t>1400 / 05</t>
+  </si>
+  <si>
+    <t>SKerman_SPs</t>
+  </si>
+  <si>
+    <t>1400/05/03</t>
+  </si>
+  <si>
+    <t>2021 Jully 25</t>
+  </si>
+  <si>
+    <t>HomaStatisticsReport</t>
+  </si>
+  <si>
+    <t>2021 Aug 10</t>
+  </si>
+  <si>
+    <t>1400/05/19</t>
   </si>
 </sst>
 </file>
@@ -625,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,8 +881,48 @@
         <v>49</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A8:C8"/>

--- a/Dates.xlsx
+++ b/Dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8DCC8-8316-48B4-90DF-4BA8C1BB9B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9136D74-604C-4AC8-AB17-66B54A3F0DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Report Dates</t>
   </si>
@@ -202,6 +202,27 @@
   </si>
   <si>
     <t>1400/05/19</t>
+  </si>
+  <si>
+    <t>spGetReport_9_18_ByOperator</t>
+  </si>
+  <si>
+    <t>2021 Aug 14</t>
+  </si>
+  <si>
+    <t>1400/05/23</t>
+  </si>
+  <si>
+    <t>PostZamini 6-21</t>
+  </si>
+  <si>
+    <t>1400 / 06</t>
+  </si>
+  <si>
+    <t>2021 Aug 31</t>
+  </si>
+  <si>
+    <t>1400/06/09</t>
   </si>
 </sst>
 </file>
@@ -333,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -346,12 +367,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,6 +376,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,11 +682,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -678,11 +700,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -729,11 +751,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -791,11 +813,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -831,11 +853,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -882,11 +904,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -911,17 +933,52 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
